--- a/Assignment 2/question2.xlsx
+++ b/Assignment 2/question2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\raeedh\school\CIVENG3C03\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4B8A43-812B-416F-A8E5-6EEB6DC781B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD96227E-F147-4CC8-810F-75ACC1635CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{0FE6BD66-F34D-4BD0-9191-67CCF2CBDDFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -23,23 +23,23 @@
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$I$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$I$6:$I$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$I$6:$I$7</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$I$8</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$I$4</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$K$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$K$6:$K$9</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$K$6:$K$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$K$8</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Variables</t>
   </si>
@@ -104,12 +104,6 @@
     <t>#2</t>
   </si>
   <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
     <t>#5</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Worksheet: [question2.xlsx]Sheet1</t>
   </si>
   <si>
-    <t>Report Created: 2022-10-20 21:56:44</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>Engine: Simplex LP</t>
   </si>
   <si>
-    <t>Solution Time: 0.016 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 3 Subproblems: 0</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
   </si>
   <si>
-    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
-  </si>
-  <si>
     <t>Objective Cell (Min)</t>
   </si>
   <si>
@@ -209,12 +194,6 @@
     <t>Values X3</t>
   </si>
   <si>
-    <t>$I$10</t>
-  </si>
-  <si>
-    <t>$I$10&gt;=$K$10</t>
-  </si>
-  <si>
     <t>Binding</t>
   </si>
   <si>
@@ -230,19 +209,19 @@
     <t>$I$7&lt;=$K$7</t>
   </si>
   <si>
-    <t>Not Binding</t>
-  </si>
-  <si>
     <t>$I$8</t>
   </si>
   <si>
-    <t>$I$8&lt;=$K$8</t>
-  </si>
-  <si>
-    <t>$I$9</t>
-  </si>
-  <si>
-    <t>$I$9&lt;=$K$9</t>
+    <t>Report Created: 2022-10-21 20:51:58</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.015 Seconds.</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%</t>
+  </si>
+  <si>
+    <t>$I$8&gt;=$K$8</t>
   </si>
 </sst>
 </file>
@@ -648,102 +627,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C85733-FFBA-4F0F-9B2D-CD057D9AB573}">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB57B5C-E1E6-4586-8E2F-F9E3BE3F4073}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
@@ -752,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>-62057.142857142855</v>
+        <v>-61200</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -791,166 +770,126 @@
         <v>1200</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <v>3085.7142857142853</v>
+        <v>4800</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" s="6">
-        <v>1200</v>
+        <v>22000</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="6">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
         <v>1200</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="4">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3085.7142857142853</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="2">
-        <v>6914.2857142857147</v>
       </c>
     </row>
   </sheetData>
@@ -960,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE452AB-7A55-48B8-839E-1A45069E07FA}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +929,10 @@
         <v>1200</v>
       </c>
       <c r="E3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F3">
-        <v>3085.7142857142853</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1011,7 +950,7 @@
       </c>
       <c r="I4">
         <f>(D3*D4)+(E3*E4)+(F3*F4)</f>
-        <v>-62057.142857142855</v>
+        <v>-61200</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -1046,17 +985,17 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
       <c r="I7">
         <f>(D7*$D$3)+(E7*$E$3)+(F7*$F$3)</f>
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
@@ -1067,10 +1006,10 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1079,61 +1018,13 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I10" si="0">(D8*$D$3)+(E8*$E$3)+(F8*$F$3)</f>
-        <v>10000</v>
+        <f>(D8*$D$3)+(E8*$E$3)+(F8*$F$3)</f>
+        <v>1200</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>3085.7142857142853</v>
-      </c>
-      <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10">
         <v>1200</v>
       </c>
     </row>
